--- a/ExcelConfig/buffdata.xlsx
+++ b/ExcelConfig/buffdata.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="22">
   <si>
     <t>ID</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -48,14 +48,6 @@
   </si>
   <si>
     <t>名称</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>hero1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>hero2</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -97,21 +89,52 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Int</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>触发间隔</t>
+    <t>BuffMagicKey</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>配置Key</t>
     <rPh sb="0" eb="1">
-      <t>chu fa</t>
+      <t>pei zhi</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>隐身</t>
+    <rPh sb="0" eb="1">
+      <t>yin shen</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>间隔毫秒数</t>
+    <rPh sb="0" eb="1">
+      <t>jian ge</t>
     </rPh>
     <rPh sb="2" eb="3">
-      <t>jian ge</t>
+      <t>hao miao</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>shu</t>
     </rPh>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>TickTime</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>show_hit_buff</t>
+  </si>
+  <si>
+    <t>被击</t>
+    <rPh sb="0" eb="1">
+      <t>bei da ji</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>hiden_buff</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -507,16 +530,16 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D1" s="4" t="s">
         <v>11</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="D1" s="4" t="s">
-        <v>13</v>
       </c>
     </row>
   </sheetData>
@@ -527,27 +550,27 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E5"/>
+  <dimension ref="A1:F5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="D16" sqref="D16"/>
+      <selection pane="bottomRight" activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="16" style="2" customWidth="1"/>
     <col min="2" max="2" width="12.83203125" style="2" customWidth="1"/>
-    <col min="3" max="3" width="8.83203125" style="2"/>
-    <col min="4" max="4" width="17" style="2" customWidth="1"/>
-    <col min="5" max="5" width="15.6640625" style="2" customWidth="1"/>
+    <col min="3" max="3" width="8.83203125" style="2" customWidth="1"/>
+    <col min="4" max="4" width="18.6640625" style="2" customWidth="1"/>
+    <col min="5" max="5" width="17" style="2" customWidth="1"/>
     <col min="6" max="6" width="15.33203125" style="2" customWidth="1"/>
     <col min="7" max="16384" width="8.83203125" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1" s="3" t="s">
         <v>1</v>
       </c>
@@ -558,30 +581,36 @@
         <v>4</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E1" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="F1" s="2" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
         <v>2</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>16</v>
+        <v>6</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
         <v>3</v>
       </c>
@@ -591,27 +620,48 @@
       <c r="C3" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="D3" s="2" t="s">
-        <v>14</v>
+      <c r="D3" s="3" t="s">
+        <v>15</v>
       </c>
       <c r="E3" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F3" s="2" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B4" s="2">
         <v>1</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>6</v>
+        <v>20</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="E4" s="2">
+        <v>0</v>
+      </c>
+      <c r="F4" s="2">
+        <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B5" s="2">
         <v>2</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>7</v>
+        <v>16</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="E5" s="2">
+        <v>5000</v>
+      </c>
+      <c r="F5" s="2">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
